--- a/medicine/Premiers secours et secourisme/Douche_portative_de_sécurité/Douche_portative_de_sécurité.xlsx
+++ b/medicine/Premiers secours et secourisme/Douche_portative_de_sécurité/Douche_portative_de_sécurité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Douche_portative_de_s%C3%A9curit%C3%A9</t>
+          <t>Douche_portative_de_sécurité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une douche portative de sécurité est un appareil ayant souvent l'apparence d'un extincteur, mais dont le corps est de couleur verte, et qui sert à secourir les victimes de brûlures thermiques ou chimiques.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Douche_portative_de_s%C3%A9curit%C3%A9</t>
+          <t>Douche_portative_de_sécurité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La douche portative de sécurité a une capacité comprise le plus souvent entre 6 et 9 litres. Elle contient de l'eau déminéralisée avec un certain pourcentage de solution aseptisante, neutralisante ou calmante (diphoterine), selon l'objectif. L'agent propulseur est le dioxyde de carbone (CO2) contenu dans une cartouche de gaz appelée sparklet.
 Comme les extincteurs, la douche portative doit subir des vérifications périodiques ; de même, le diffuseur et la lance doivent être éloignés d'un conducteur électrique.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Douche_portative_de_s%C3%A9curit%C3%A9</t>
+          <t>Douche_portative_de_sécurité</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La douche portable de sécurité sert à :
 refroidir une brûlure thermique dans les premiers instants, par la suite le refroidissement devra être poursuivi par un autre moyen pendant au moins 15 minutes ;
